--- a/output/outputExec_1.xlsx
+++ b/output/outputExec_1.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Desktop\CR1819\TrabPratico\work\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\MyProjects\ISEC\CR_MatlabNN\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1B4C42-E7F6-4BD9-85D8-722E1EC824F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4501CDE3-6E5C-43CD-BC19-2832790B66F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="4" xr2:uid="{8FC2490B-47A0-4668-AE46-05FEF08BE006}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="3" xr2:uid="{6ECC7980-D139-41BF-BBC8-2341717559DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
     <sheet name="Folha4" sheetId="4" r:id="rId4"/>
-    <sheet name="Folha5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -102,13 +101,7 @@
     <t>Precisao Global</t>
   </si>
   <si>
-    <t>dividerand</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>teste23</t>
+    <t>./save/teste.mat</t>
   </si>
 </sst>
 </file>
@@ -144,9 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58226676-45E9-4C0D-8A42-1CD8837EE4A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54BE31F-D55F-4342-AEF5-E281AF94963F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -728,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>69.527363184079604</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -749,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834368D3-511C-4553-B245-B3BEBE6882E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902E223-E8CE-49FF-9E3B-574C49435667}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -849,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,8 +860,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.7</v>
+      <c r="F6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,8 +880,8 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.15</v>
+      <c r="F7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -908,8 +900,8 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.15</v>
+      <c r="F8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -996,8 +988,8 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>100</v>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1038,19 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320BDBA7-17EF-4666-A3BA-9D41AD481163}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C09FF8F-3CD3-4B0F-97C0-895BCA8F0B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B04E9A-7666-4020-8AB5-A0581D0E1644}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1064,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1150,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,8 +1149,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.7</v>
+      <c r="F6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,8 +1169,8 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.15</v>
+      <c r="F7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,8 +1189,8 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.15</v>
+      <c r="F8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -1338,8 +1318,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E27E30-4E01-46B9-8A53-E7B4AC7D3F54}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B501A6A8-C819-4E3F-A6E9-01F9E37352E3}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1353,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>

--- a/output/outputExec_1.xlsx
+++ b/output/outputExec_1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\MyProjects\ISEC\CR_MatlabNN\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018387E8-E026-4051-AD15-27E8FF526A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590A725-2B6B-439A-869B-9D0D1A5FDEB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" xr2:uid="{FA039AE5-4F09-4B7D-83A3-EF53888398F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="3" xr2:uid="{FA039AE5-4F09-4B7D-83A3-EF53888398F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -99,6 +102,15 @@
   </si>
   <si>
     <t>Precisao Global</t>
+  </si>
+  <si>
+    <t>trainlmSetup1_6</t>
+  </si>
+  <si>
+    <t>trainlmSetup1_8</t>
+  </si>
+  <si>
+    <t>trainlmSetup1_10</t>
   </si>
 </sst>
 </file>
@@ -452,6 +464,873 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2443DDF3-8BC2-4CE8-A292-FC6E9C9F1386}">
   <dimension ref="A1:F14"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E06548B-F7FC-4BC7-A0D9-03389489D929}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B54D62-BF3E-4EBA-BC0B-8336723725CA}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F1190C-DA13-4ED2-88FA-193CD548A004}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F14"/>
     </sheetView>
@@ -463,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -717,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
